--- a/codigo_final_organizado/Simulaciones/proporciones/resultados_TEST_PROP240_SETAR.xlsx
+++ b/codigo_final_organizado/Simulaciones/proporciones/resultados_TEST_PROP240_SETAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,87 +446,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tipo_Proceso</t>
+          <t>Distribución</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Varianza</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Varianza</t>
+          <t>N_Train</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N_Train</t>
+          <t>N_Calib</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>N_Calib</t>
+          <t>Prop_Calib</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N_Total</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Prop_Calib</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -541,60 +526,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>216</v>
-      </c>
-      <c r="G2" t="n">
         <v>24</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6363449368621632</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5843994421329947</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4694385846995186</v>
+        <v>0.5704693627959849</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1094779947254345</v>
+        <v>0.5708409212750848</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3876631901523508</v>
+        <v>0.6533329303549954</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2779420912096783</v>
+        <v>0.8549203449787076</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2409144176779252</v>
+        <v>0.6698885314340796</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7721281574059563</v>
+        <v>0.5913008169972653</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2520512463335869</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2160028723092783</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.2928420559895525</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.2333636431054446</v>
+        <v>0.8722910529927427</v>
       </c>
     </row>
     <row r="3">
@@ -608,60 +582,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>216</v>
-      </c>
-      <c r="G3" t="n">
         <v>24</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>240</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.7872645896631905</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5875887580573952</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1291006387172426</v>
+        <v>0.9091143611602888</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2574132044999128</v>
+        <v>1.093086879111846</v>
       </c>
       <c r="L3" t="n">
-        <v>0.14435422134464</v>
+        <v>0.7846454750213745</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3585386870633969</v>
+        <v>0.6182420795381388</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2858974818859772</v>
+        <v>0.6373469379612882</v>
       </c>
       <c r="O3" t="n">
-        <v>0.80148390801628</v>
+        <v>0.7252123473771795</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2904558062683624</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2233903431315807</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.2903447924006524</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.4176613226640139</v>
+        <v>0.8795542239843075</v>
       </c>
     </row>
     <row r="4">
@@ -675,60 +638,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F4" t="n">
-        <v>216</v>
-      </c>
-      <c r="G4" t="n">
         <v>24</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>240</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5639805306512824</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5656516677990023</v>
       </c>
       <c r="J4" t="n">
-        <v>1.394031589762811</v>
+        <v>0.6579954765286103</v>
       </c>
       <c r="K4" t="n">
-        <v>1.718011178406464</v>
+        <v>0.6529974665516339</v>
       </c>
       <c r="L4" t="n">
-        <v>1.430363539027642</v>
+        <v>0.5706582279067364</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457486008653473</v>
+        <v>0.658256598514906</v>
       </c>
       <c r="N4" t="n">
-        <v>1.287572039323229</v>
+        <v>0.611133090360393</v>
       </c>
       <c r="O4" t="n">
-        <v>1.115136181438413</v>
+        <v>0.5698457560377799</v>
       </c>
       <c r="P4" t="n">
-        <v>1.419907370012418</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.386507267196862</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.284946714206801</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.380592679034608</v>
+        <v>0.8222068324378435</v>
       </c>
     </row>
     <row r="5">
@@ -742,60 +694,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F5" t="n">
-        <v>216</v>
-      </c>
-      <c r="G5" t="n">
         <v>24</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>240</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5703765136657033</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5654217395649497</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.263674235812704</v>
+        <v>0.5718470472866307</v>
       </c>
       <c r="K5" t="n">
-        <v>2.370629022577109</v>
+        <v>0.5837226012779874</v>
       </c>
       <c r="L5" t="n">
-        <v>2.221499845454026</v>
+        <v>0.5875137066800074</v>
       </c>
       <c r="M5" t="n">
-        <v>1.955040394760916</v>
+        <v>0.7210538059920014</v>
       </c>
       <c r="N5" t="n">
-        <v>2.782326382302721</v>
+        <v>0.6159427528096181</v>
       </c>
       <c r="O5" t="n">
-        <v>1.710292265914177</v>
+        <v>0.562801722160203</v>
       </c>
       <c r="P5" t="n">
-        <v>2.200012610925726</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.296296859085059</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.118252273845326</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.983095190612754</v>
+        <v>0.8438923942548372</v>
       </c>
     </row>
     <row r="6">
@@ -809,60 +750,49 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F6" t="n">
-        <v>216</v>
-      </c>
-      <c r="G6" t="n">
         <v>24</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>240</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6552933450787769</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6697446540368858</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.195054805997307</v>
+        <v>0.6239498082976069</v>
       </c>
       <c r="K6" t="n">
-        <v>1.309292150168514</v>
+        <v>0.5680768436293515</v>
       </c>
       <c r="L6" t="n">
-        <v>1.017538814357226</v>
+        <v>0.6861917308243309</v>
       </c>
       <c r="M6" t="n">
-        <v>1.067099685953772</v>
+        <v>0.6425446912940825</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2358571362001545</v>
+        <v>0.6100008816751863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7878378543990316</v>
+        <v>0.5733975909215315</v>
       </c>
       <c r="P6" t="n">
-        <v>1.719774021442556</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.237438612221236</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.4919183998585334</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2610171365203846</v>
+        <v>0.8881021872259203</v>
       </c>
     </row>
     <row r="7">
@@ -876,60 +806,49 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>216</v>
-      </c>
-      <c r="G7" t="n">
         <v>24</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>240</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5877790628253612</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8230185070006232</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.140520462225937</v>
+        <v>0.586411766223163</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3676403662092456</v>
+        <v>0.7018933605115631</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3009971746436415</v>
+        <v>0.5903694533282065</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3332284053183412</v>
+        <v>0.6938511040699852</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3362951030716399</v>
+        <v>0.976169892217576</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7129594657130862</v>
+        <v>0.8048698259985565</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3730210170310396</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.4635038150278531</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.2367389512160385</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.2480607873894396</v>
+        <v>0.8340279103335861</v>
       </c>
     </row>
     <row r="8">
@@ -943,60 +862,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F8" t="n">
-        <v>216</v>
-      </c>
-      <c r="G8" t="n">
         <v>24</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>240</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.8675011752622002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5734746947094905</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3883182876484626</v>
+        <v>1.389276288467843</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1254797572173388</v>
+        <v>1.216497922655285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2805380627843685</v>
+        <v>0.8693556945192346</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2894560005783254</v>
+        <v>0.7326250492836478</v>
       </c>
       <c r="N8" t="n">
-        <v>0.274136529826975</v>
+        <v>0.8600992596025783</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7744327784393856</v>
+        <v>0.6538835808758897</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5352030976071872</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.205340997311805</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.2517189070094186</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.224355400142525</v>
+        <v>0.8989224465978142</v>
       </c>
     </row>
     <row r="9">
@@ -1010,60 +918,49 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F9" t="n">
-        <v>216</v>
-      </c>
-      <c r="G9" t="n">
         <v>24</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>240</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.7107392132012392</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.585216658956635</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6049055539103674</v>
+        <v>0.5567462903302045</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1124218810162268</v>
+        <v>1.030104100435963</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2584731659817684</v>
+        <v>0.7335859563576623</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2375783274701707</v>
+        <v>0.7304313654266723</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2619363949329132</v>
+        <v>0.5945917522752885</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7551585069793125</v>
+        <v>0.633141606736668</v>
       </c>
       <c r="P9" t="n">
-        <v>0.248460964370626</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.2375589363447916</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.3718224709932936</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2333638547090017</v>
+        <v>0.850483641396517</v>
       </c>
     </row>
     <row r="10">
@@ -1077,60 +974,49 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F10" t="n">
-        <v>216</v>
-      </c>
-      <c r="G10" t="n">
         <v>24</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>240</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5873291870637547</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5906312704983701</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.119665114824803</v>
+        <v>0.6732591212121319</v>
       </c>
       <c r="K10" t="n">
-        <v>1.217679675973707</v>
+        <v>0.6291516509870457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.635696856039034</v>
+        <v>0.5956020494428483</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9265731303277711</v>
+        <v>0.8982715979309795</v>
       </c>
       <c r="N10" t="n">
-        <v>1.075095045549751</v>
+        <v>0.8574307530394158</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7416861842924819</v>
+        <v>0.5979605276897609</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8587190507113237</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.165942923242445</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.9463545776094876</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.9093144547282023</v>
+        <v>0.8362646756445011</v>
       </c>
     </row>
     <row r="11">
@@ -1144,60 +1030,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
-        <v>216</v>
-      </c>
-      <c r="G11" t="n">
         <v>24</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>240</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6530216414093186</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5765485154551552</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.943803585180772</v>
+        <v>0.8241314124589622</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2446598361074374</v>
+        <v>0.943941939530985</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4409587903811282</v>
+        <v>0.686850993153027</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2705057268644483</v>
+        <v>0.7833991882374011</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2866313351211873</v>
+        <v>0.6390620696311808</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7247938913951886</v>
+        <v>0.5876257323170272</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2758754399726921</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.3605904292510174</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.3887541114135773</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.2847138872181404</v>
+        <v>0.8349555684790869</v>
       </c>
     </row>
     <row r="12">
@@ -1211,60 +1086,49 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
-        <v>216</v>
-      </c>
-      <c r="G12" t="n">
         <v>24</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>240</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6409113154119076</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5788479493160962</v>
       </c>
       <c r="J12" t="n">
-        <v>1.161068063055722</v>
+        <v>0.8814978351959196</v>
       </c>
       <c r="K12" t="n">
-        <v>1.489300415194485</v>
+        <v>0.5767767344497744</v>
       </c>
       <c r="L12" t="n">
-        <v>1.820930417224271</v>
+        <v>0.6693722492930012</v>
       </c>
       <c r="M12" t="n">
-        <v>1.281632458170151</v>
+        <v>0.8133305091970336</v>
       </c>
       <c r="N12" t="n">
-        <v>1.312867407327068</v>
+        <v>0.7081710867835423</v>
       </c>
       <c r="O12" t="n">
-        <v>1.041887897638795</v>
+        <v>0.5771151787434883</v>
       </c>
       <c r="P12" t="n">
-        <v>1.555684686765855</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.166513958785607</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.2320307230411</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.89035986584875</v>
+        <v>0.878805296975121</v>
       </c>
     </row>
     <row r="13">
@@ -1278,60 +1142,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>216</v>
-      </c>
-      <c r="G13" t="n">
         <v>24</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>240</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6077651842099211</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5528112836089467</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.114395436443998</v>
+        <v>0.5600460369563601</v>
       </c>
       <c r="K13" t="n">
-        <v>1.216608372995884</v>
+        <v>0.5516873544602804</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7553867431992712</v>
+        <v>0.6265093932357719</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9557199303770433</v>
+        <v>1.469510826562523</v>
       </c>
       <c r="N13" t="n">
-        <v>1.727409841393275</v>
+        <v>0.9562019339834296</v>
       </c>
       <c r="O13" t="n">
-        <v>0.736376140005171</v>
+        <v>0.6039445866353099</v>
       </c>
       <c r="P13" t="n">
-        <v>1.052115981283885</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.16132668498086</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.179782184493445</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.956226261964121</v>
+        <v>0.8670594869419932</v>
       </c>
     </row>
     <row r="14">
@@ -1347,58 +1200,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F14" t="n">
-        <v>216</v>
-      </c>
-      <c r="G14" t="n">
         <v>24</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>240</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0.6556922246087348</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6044462617613787</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7337287339094755</v>
+      </c>
       <c r="K14" t="n">
-        <v>0.8782178212576465</v>
+        <v>0.7598981479064001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8078667350491139</v>
+        <v>0.6711656550097663</v>
       </c>
       <c r="M14" t="n">
-        <v>0.784233403895624</v>
+        <v>0.8013697634188399</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8422449262177348</v>
+        <v>0.7280032451477979</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8895144359697733</v>
+        <v>0.6234249393742216</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8984401077271049</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.8433678082406998</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.7571255135064353</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.9185103736614487</v>
+        <v>0.8588804764386894</v>
       </c>
     </row>
     <row r="15">
@@ -1412,60 +1256,49 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F15" t="n">
-        <v>216</v>
-      </c>
-      <c r="G15" t="n">
         <v>24</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>240</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5906231903981436</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5808904665368096</v>
       </c>
       <c r="J15" t="n">
-        <v>1.231457813806725</v>
+        <v>0.585861423094168</v>
       </c>
       <c r="K15" t="n">
-        <v>0.668356729319619</v>
+        <v>0.5857266210615867</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3429610453887812</v>
+        <v>0.5659130254350536</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6890936629601364</v>
+        <v>0.6143855973733942</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4909833720610559</v>
+        <v>0.6667759331132135</v>
       </c>
       <c r="O15" t="n">
-        <v>1.105496210444844</v>
+        <v>0.5666694485344467</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6095450619642312</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.6312626929680611</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.151895955317063</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.5375017803315503</v>
+        <v>0.9899291306712958</v>
       </c>
     </row>
     <row r="16">
@@ -1479,60 +1312,49 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>216</v>
-      </c>
-      <c r="G16" t="n">
         <v>24</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>240</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.7818668659465113</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8171342350777019</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.7412623195582275</v>
+        <v>0.7533705008953595</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5785709473101134</v>
+        <v>0.7030088244185408</v>
       </c>
       <c r="L16" t="n">
-        <v>1.012376890830943</v>
+        <v>0.8247173948712461</v>
       </c>
       <c r="M16" t="n">
-        <v>0.524968911089266</v>
+        <v>1.086094942946168</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3936802474212316</v>
+        <v>1.078324603507454</v>
       </c>
       <c r="O16" t="n">
-        <v>1.000294140550481</v>
+        <v>0.954988754162073</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6457897166954106</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.5525331922330401</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.5686877342677331</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.4466714882857147</v>
+        <v>1.092650281703874</v>
       </c>
     </row>
     <row r="17">
@@ -1546,60 +1368,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>216</v>
-      </c>
-      <c r="G17" t="n">
         <v>24</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>240</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.682176050193996</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6640221687506805</v>
       </c>
       <c r="J17" t="n">
-        <v>1.663922061597907</v>
+        <v>0.7036005980363512</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9951703594007528</v>
+        <v>0.6041956491249441</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6316375820727713</v>
+        <v>0.6785483931412464</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9400796272685471</v>
+        <v>0.9709050475129716</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9165351321605186</v>
+        <v>1.263577973812348</v>
       </c>
       <c r="O17" t="n">
-        <v>1.146822347556593</v>
+        <v>0.6229875027339979</v>
       </c>
       <c r="P17" t="n">
-        <v>1.064351144412051</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.9098174588243664</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.5387464935747351</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.7929482270117787</v>
+        <v>1.045437027165883</v>
       </c>
     </row>
     <row r="18">
@@ -1613,60 +1424,49 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F18" t="n">
-        <v>216</v>
-      </c>
-      <c r="G18" t="n">
         <v>24</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>240</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.5913100346031456</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7354649662152732</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3975926241881487</v>
+        <v>0.583226697660395</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2485562462969181</v>
+        <v>0.5749762616620492</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2227470924544076</v>
+        <v>0.5768647441023158</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4018187387095402</v>
+        <v>0.6994798912882473</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4405404465038776</v>
+        <v>0.7500636622598432</v>
       </c>
       <c r="O18" t="n">
-        <v>1.059610583678708</v>
+        <v>0.6127306700650471</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3302674141011566</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.3249574525560948</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2867886207465056</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.3400864665621309</v>
+        <v>1.002030024490704</v>
       </c>
     </row>
     <row r="19">
@@ -1680,60 +1480,49 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>216</v>
-      </c>
-      <c r="G19" t="n">
         <v>24</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>240</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.6252753577235539</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5689690164594958</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4817532254157123</v>
+        <v>0.9052136014659924</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4094375822619487</v>
+        <v>0.5758662440897528</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5654067183752001</v>
+        <v>0.6243540778858971</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4352987917090334</v>
+        <v>0.7689270529252267</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3673598837870139</v>
+        <v>0.5765173817211465</v>
       </c>
       <c r="O19" t="n">
-        <v>1.014095752381543</v>
+        <v>0.6003294609362567</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6232425654377681</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.430791043403232</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.3196023146924256</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.3324477989101066</v>
+        <v>1.024415841973049</v>
       </c>
     </row>
     <row r="20">
@@ -1747,60 +1536,49 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>216</v>
-      </c>
-      <c r="G20" t="n">
         <v>24</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>240</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.563662717065532</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.459718891712601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9567427833712242</v>
+        <v>1.908196370128644</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4957561586083825</v>
+        <v>1.777887341602938</v>
       </c>
       <c r="L20" t="n">
-        <v>0.317085373781318</v>
+        <v>1.669900076764599</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5451777724720502</v>
+        <v>1.02178413300315</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3038755605801763</v>
+        <v>0.9128939741479301</v>
       </c>
       <c r="O20" t="n">
-        <v>1.088898370639785</v>
+        <v>0.9237845253335971</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7689767775100327</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.4916868366651643</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.4895440883459626</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.3170150337067796</v>
+        <v>1.296603799425751</v>
       </c>
     </row>
     <row r="21">
@@ -1814,60 +1592,49 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F21" t="n">
-        <v>216</v>
-      </c>
-      <c r="G21" t="n">
         <v>24</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>240</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.11502543146134</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8710546171014408</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.110311143616687</v>
+        <v>1.153602156828245</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2557309555200321</v>
+        <v>0.9370615621300464</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1803290620600514</v>
+        <v>1.137044715511258</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3702939121295571</v>
+        <v>0.640503909900865</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4135201138955582</v>
+        <v>0.6122695262556768</v>
       </c>
       <c r="O21" t="n">
-        <v>1.033293794592653</v>
+        <v>0.7215003824325275</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5784181252972753</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.3244141679030073</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.2989354384566634</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.3659018198098207</v>
+        <v>1.203877323992902</v>
       </c>
     </row>
     <row r="22">
@@ -1881,60 +1648,49 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F22" t="n">
-        <v>216</v>
-      </c>
-      <c r="G22" t="n">
         <v>24</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>240</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.183639009332838</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6107807609744828</v>
       </c>
       <c r="J22" t="n">
-        <v>0.120616684202646</v>
+        <v>0.9987458748616613</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2188310755924807</v>
+        <v>1.093458438118818</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2599744477128036</v>
+        <v>1.31301821639501</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3516512094909258</v>
+        <v>1.091538556913656</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2719313481419694</v>
+        <v>0.8497270864887166</v>
       </c>
       <c r="O22" t="n">
-        <v>1.044870920985389</v>
+        <v>0.7416131911456253</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3287961589380739</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.3055020006391767</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.3936015479563171</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.3586112894837332</v>
+        <v>1.288811255063962</v>
       </c>
     </row>
     <row r="23">
@@ -1948,60 +1704,49 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>216</v>
-      </c>
-      <c r="G23" t="n">
         <v>24</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>240</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.462956160210768</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7423450963922152</v>
       </c>
       <c r="J23" t="n">
-        <v>1.619424195964326</v>
+        <v>2.62173801625168</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9742001911639899</v>
+        <v>1.659273797842824</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4002752249268932</v>
+        <v>1.543070973219955</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9437408987535266</v>
+        <v>0.6242307220813563</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7940482250020012</v>
+        <v>0.6786373477570047</v>
       </c>
       <c r="O23" t="n">
-        <v>1.141655830560415</v>
+        <v>0.6775211063913168</v>
       </c>
       <c r="P23" t="n">
-        <v>1.099000042927276</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.8790713549982132</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.092473325689459</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.6620883877132109</v>
+        <v>1.234580216431673</v>
       </c>
     </row>
     <row r="24">
@@ -2015,60 +1760,49 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>216</v>
-      </c>
-      <c r="G24" t="n">
         <v>24</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>240</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.491946615009118</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8482777194696588</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.027892545572478</v>
+        <v>2.557077859620727</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7677046154140255</v>
+        <v>1.359922644500456</v>
       </c>
       <c r="L24" t="n">
-        <v>1.223001468539747</v>
+        <v>1.620075126074262</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6785596378714933</v>
+        <v>0.6850848861870545</v>
       </c>
       <c r="N24" t="n">
-        <v>0.494328384354863</v>
+        <v>0.72065852977638</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9879994594734161</v>
+        <v>0.5650917865405795</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9092178179253916</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.72363849011625</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.8267417040779316</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.5871125975611028</v>
+        <v>1.440656059018024</v>
       </c>
     </row>
     <row r="25">
@@ -2082,60 +1816,49 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F25" t="n">
-        <v>216</v>
-      </c>
-      <c r="G25" t="n">
         <v>24</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>240</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.349584785689171</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.662941672396728</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2500054869453799</v>
+        <v>0.7311255717584564</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2203237536917374</v>
+        <v>1.269546343506793</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3843777441778405</v>
+        <v>1.516330048979439</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3851471390672703</v>
+        <v>0.6875489555809602</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3949942809356535</v>
+        <v>0.701750272244807</v>
       </c>
       <c r="O25" t="n">
-        <v>1.05134428221599</v>
+        <v>0.8353849433610526</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3589042066099389</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.3095321933860924</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.2652599724601611</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.3395950041553676</v>
+        <v>1.380091393472953</v>
       </c>
     </row>
     <row r="26">
@@ -2149,60 +1872,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F26" t="n">
-        <v>216</v>
-      </c>
-      <c r="G26" t="n">
         <v>24</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>240</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.955000932347807</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5939414354109317</v>
       </c>
       <c r="J26" t="n">
-        <v>1.304380538705563</v>
+        <v>1.879394689979016</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7363748730514251</v>
+        <v>1.123502145101315</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3980219283247851</v>
+        <v>1.011101890226508</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7345173041364099</v>
+        <v>0.6083807641352807</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4770820228059434</v>
+        <v>0.6564294029096935</v>
       </c>
       <c r="O26" t="n">
-        <v>1.111512875266818</v>
+        <v>0.6202994811786282</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6943079245686802</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.6758096172946944</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.4182363982435825</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.4093631824287893</v>
+        <v>1.045136604838844</v>
       </c>
     </row>
     <row r="27">
@@ -2218,58 +1930,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F27" t="n">
-        <v>216</v>
-      </c>
-      <c r="G27" t="n">
         <v>24</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>240</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1.032755595831827</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7629617538748349</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.281762780048391</v>
+      </c>
       <c r="K27" t="n">
-        <v>0.5474177906359522</v>
+        <v>1.022035489430005</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4948495482204618</v>
+        <v>1.090078223550566</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5833623004714797</v>
+        <v>0.7915720383206942</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4799065848041552</v>
+        <v>0.7889688078328513</v>
       </c>
       <c r="O27" t="n">
-        <v>1.065491214028886</v>
+        <v>0.7035751044012623</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6675680796989405</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.5465847084156161</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.5542094661523783</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.4574452563300072</v>
+        <v>1.170351579854076</v>
       </c>
     </row>
     <row r="28">
@@ -2283,60 +1986,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F28" t="n">
-        <v>168</v>
-      </c>
-      <c r="G28" t="n">
         <v>72</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>240</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6113858864822613</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5867673013596603</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6728902401236641</v>
+        <v>0.5644589955900708</v>
       </c>
       <c r="K28" t="n">
-        <v>1.070709130223828</v>
+        <v>0.564054661567732</v>
       </c>
       <c r="L28" t="n">
-        <v>2.775110324371007</v>
+        <v>0.6537027412979379</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7266434987627605</v>
+        <v>0.5813651622004449</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8349318081416595</v>
+        <v>0.7675772482809817</v>
       </c>
       <c r="O28" t="n">
-        <v>1.049804502879069</v>
+        <v>0.5781963238153378</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8030172094996472</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.8282633795164669</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.456129126754336</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.351223547933449</v>
+        <v>0.9592090099824032</v>
       </c>
     </row>
     <row r="29">
@@ -2350,60 +2042,49 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F29" t="n">
-        <v>168</v>
-      </c>
-      <c r="G29" t="n">
         <v>72</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>240</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.7639606710222768</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.176371207067129</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.04096989450147415</v>
+        <v>0.8238153714730316</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5509305038505444</v>
+        <v>0.9271621139466496</v>
       </c>
       <c r="L29" t="n">
-        <v>0.333076073221807</v>
+        <v>0.8125377026990497</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3883759116013573</v>
+        <v>0.6141329878023037</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3502247752683568</v>
+        <v>0.8883975523732305</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9436969128044528</v>
+        <v>0.8434694086417797</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6257349835695735</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.4070504889591839</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.4046169234347163</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.2832948933460041</v>
+        <v>0.8656504912767593</v>
       </c>
     </row>
     <row r="30">
@@ -2417,60 +2098,49 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F30" t="n">
-        <v>168</v>
-      </c>
-      <c r="G30" t="n">
         <v>72</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>240</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.5867666914386782</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5872658388544455</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.7170115599990657</v>
+        <v>0.7755215839040303</v>
       </c>
       <c r="K30" t="n">
-        <v>0.278860013914155</v>
+        <v>0.6354651802858315</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4608865714396636</v>
+        <v>0.5944032925462218</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2831595749265621</v>
+        <v>0.6146072580460661</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2946094565564835</v>
+        <v>0.6188853431076725</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8677080837117235</v>
+        <v>0.5986307105489326</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3802994440783659</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.2886492755753041</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.2301193342476863</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.31519491893508</v>
+        <v>0.8729993866689033</v>
       </c>
     </row>
     <row r="31">
@@ -2484,60 +2154,49 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F31" t="n">
-        <v>168</v>
-      </c>
-      <c r="G31" t="n">
         <v>72</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>240</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6050716090864825</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6120675893685688</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.578837585139702</v>
+        <v>0.5993997694499084</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4380839484873887</v>
+        <v>0.5919931356147499</v>
       </c>
       <c r="L31" t="n">
-        <v>1.041199691264731</v>
+        <v>0.6235916252027545</v>
       </c>
       <c r="M31" t="n">
-        <v>0.623776215460094</v>
+        <v>0.7372409075003723</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6549219402323226</v>
+        <v>0.7123095244832528</v>
       </c>
       <c r="O31" t="n">
-        <v>0.7758086406671347</v>
+        <v>0.6011666031782642</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6879975964543188</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.5363264736894222</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2481605055420906</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.6081162834125367</v>
+        <v>0.9185530112128369</v>
       </c>
     </row>
     <row r="32">
@@ -2551,60 +2210,49 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F32" t="n">
-        <v>168</v>
-      </c>
-      <c r="G32" t="n">
         <v>72</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>240</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.5561133596227176</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6302429081242023</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.150852172549905</v>
+        <v>0.5562906104077343</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4870650356433553</v>
+        <v>0.5835940851192032</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1912385378183158</v>
+        <v>0.554449285423418</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3404148870387582</v>
+        <v>0.6103297088814851</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3186068454026713</v>
+        <v>0.7314811978340175</v>
       </c>
       <c r="O32" t="n">
-        <v>0.930932334240443</v>
+        <v>0.5688960980686317</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3328033312318159</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.3665003792668686</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.684833014820223</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.2790322885782637</v>
+        <v>0.8734630155873325</v>
       </c>
     </row>
     <row r="33">
@@ -2618,60 +2266,49 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F33" t="n">
-        <v>168</v>
-      </c>
-      <c r="G33" t="n">
         <v>72</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>240</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6310349177679465</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6454298533933149</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5988835626324172</v>
+        <v>0.5927649688602192</v>
       </c>
       <c r="K33" t="n">
-        <v>1.015500043257489</v>
+        <v>0.593015657258504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4483301460075</v>
+        <v>0.6652865708469826</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6988041151822234</v>
+        <v>0.7682127390814218</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6573172251663909</v>
+        <v>0.7382618422749556</v>
       </c>
       <c r="O33" t="n">
-        <v>1.03148748811632</v>
+        <v>0.6022081304304283</v>
       </c>
       <c r="P33" t="n">
-        <v>0.640169424428121</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.7741049425215176</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.9495041410223147</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.9333381083741056</v>
+        <v>0.9456472605576862</v>
       </c>
     </row>
     <row r="34">
@@ -2685,60 +2322,49 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F34" t="n">
-        <v>168</v>
-      </c>
-      <c r="G34" t="n">
         <v>72</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>240</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6318126075545981</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6035504142779595</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5024381644518112</v>
+        <v>0.6160033762750627</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9410838324926462</v>
+        <v>0.576593181631544</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4016453156575686</v>
+        <v>0.6524826020576258</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6205038371447913</v>
+        <v>0.6873088598334474</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5041983760897574</v>
+        <v>0.9176503053300308</v>
       </c>
       <c r="O34" t="n">
-        <v>1.013437671628422</v>
+        <v>0.5849527861537137</v>
       </c>
       <c r="P34" t="n">
-        <v>0.571307795463862</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.706898977103843</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.7792759368292768</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.5676735807020343</v>
+        <v>0.958251381689687</v>
       </c>
     </row>
     <row r="35">
@@ -2752,60 +2378,49 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F35" t="n">
-        <v>168</v>
-      </c>
-      <c r="G35" t="n">
         <v>72</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>240</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.603094216497613</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5886173087298204</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.574843003148603</v>
+        <v>0.6052712534364063</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4280245556630182</v>
+        <v>0.5782649142993704</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3039630241202995</v>
+        <v>0.6232177294158955</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6596899706017694</v>
+        <v>0.7600783136674339</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7759921456224175</v>
+        <v>0.630919648420891</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7773027883123682</v>
+        <v>0.5838042506405962</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7251329888194868</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.5342253235621042</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.082882131570141</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.8471715724862967</v>
+        <v>0.9327344495714812</v>
       </c>
     </row>
     <row r="36">
@@ -2819,60 +2434,49 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F36" t="n">
-        <v>168</v>
-      </c>
-      <c r="G36" t="n">
         <v>72</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>240</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6082687447574321</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5896749517918051</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.8250137569013655</v>
+        <v>0.5859930239523499</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2732704691841931</v>
+        <v>0.5736097033107955</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4389380001064824</v>
+        <v>0.6289886920986156</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3087629563991247</v>
+        <v>0.7997961814544403</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3000183757831868</v>
+        <v>0.6824899594808037</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8576514944732383</v>
+        <v>0.5843796977034531</v>
       </c>
       <c r="P36" t="n">
-        <v>0.3401485141802654</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2946294037540471</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2286476494124629</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.3132136824572002</v>
+        <v>0.939003375447043</v>
       </c>
     </row>
     <row r="37">
@@ -2886,60 +2490,49 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F37" t="n">
-        <v>168</v>
-      </c>
-      <c r="G37" t="n">
         <v>72</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>240</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6561406606295713</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5854271470234352</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.7336377224654154</v>
+        <v>0.6893386240808093</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2853158230763194</v>
+        <v>0.7243074176448104</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1463942747664055</v>
+        <v>0.6275724183312604</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3017203844067473</v>
+        <v>0.697906675018436</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2820584063310182</v>
+        <v>0.6090648474027439</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8683667688892385</v>
+        <v>0.5904333284807487</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2898455276901698</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.2893860044130192</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.4070184707591418</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.3122065503119277</v>
+        <v>0.8524988762618525</v>
       </c>
     </row>
     <row r="38">
@@ -2953,60 +2546,49 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F38" t="n">
-        <v>168</v>
-      </c>
-      <c r="G38" t="n">
         <v>72</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>240</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6209644563416949</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5813625494843935</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.009540003327192903</v>
+        <v>0.5898309372446641</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5815140911853607</v>
+        <v>0.7292686343999232</v>
       </c>
       <c r="L38" t="n">
-        <v>1.06789167726902</v>
+        <v>0.6344253908553332</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3550907299327635</v>
+        <v>0.6858395528672944</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3457661913547108</v>
+        <v>0.5931781166114893</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9490788475923606</v>
+        <v>0.5748360811355063</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3807916177770492</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.4209538812879829</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.2413301941800884</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.4502195250669596</v>
+        <v>0.8507956649271875</v>
       </c>
     </row>
     <row r="39">
@@ -3020,60 +2602,49 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F39" t="n">
-        <v>168</v>
-      </c>
-      <c r="G39" t="n">
         <v>72</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>240</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.7363772381237231</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6576820963844395</v>
       </c>
       <c r="J39" t="n">
-        <v>-1.65299587562059</v>
+        <v>0.659047676439896</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4639476990738223</v>
+        <v>0.862195444971396</v>
       </c>
       <c r="L39" t="n">
-        <v>1.059310337652457</v>
+        <v>0.7495603534820015</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6841345821518519</v>
+        <v>0.6296918374259663</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7221302517835791</v>
+        <v>0.5906180512689353</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7725498386325942</v>
+        <v>0.6408225665037214</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6701439448998422</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.5777455637275466</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.2971687926442959</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.6945801316794442</v>
+        <v>0.85974216811571</v>
       </c>
     </row>
     <row r="40">
@@ -3089,58 +2660,49 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F40" t="n">
-        <v>168</v>
-      </c>
-      <c r="G40" t="n">
         <v>72</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>240</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0.6342492549437496</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6537049304882645</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6381446825928486</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.5678587621710099</v>
+        <v>0.6616270108375425</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7223319978079381</v>
+        <v>0.6516848670214247</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4992563886340671</v>
+        <v>0.6822091819815927</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5033979831443794</v>
+        <v>0.7067361364057504</v>
       </c>
       <c r="O40" t="n">
-        <v>0.903152114328947</v>
+        <v>0.6126496654417595</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5372826981743765</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.5020611744481089</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.5841405184347311</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.5796054236069418</v>
+        <v>0.9023790076082404</v>
       </c>
     </row>
     <row r="41">
@@ -3154,60 +2716,49 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F41" t="n">
-        <v>168</v>
-      </c>
-      <c r="G41" t="n">
         <v>72</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>240</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.618977295448731</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5748093646566468</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.293014553945936</v>
+        <v>0.7682289603097604</v>
       </c>
       <c r="K41" t="n">
-        <v>1.877566692976043</v>
+        <v>0.7767772270348856</v>
       </c>
       <c r="L41" t="n">
-        <v>2.000861949158839</v>
+        <v>0.5792957838186974</v>
       </c>
       <c r="M41" t="n">
-        <v>1.528134535542639</v>
+        <v>0.5874706333742964</v>
       </c>
       <c r="N41" t="n">
-        <v>1.465944961586666</v>
+        <v>0.6301627591704453</v>
       </c>
       <c r="O41" t="n">
-        <v>1.137545143772721</v>
+        <v>0.5745982675308582</v>
       </c>
       <c r="P41" t="n">
-        <v>1.787358750212055</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.818577380357715</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.961624660472486</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.32334586399835</v>
+        <v>1.051133892036452</v>
       </c>
     </row>
     <row r="42">
@@ -3221,60 +2772,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F42" t="n">
-        <v>168</v>
-      </c>
-      <c r="G42" t="n">
         <v>72</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>240</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.7851489126177342</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6137317020634796</v>
       </c>
       <c r="J42" t="n">
-        <v>1.931431138413536</v>
+        <v>0.6550590088468423</v>
       </c>
       <c r="K42" t="n">
-        <v>1.177136478456414</v>
+        <v>1.046087294161845</v>
       </c>
       <c r="L42" t="n">
-        <v>2.349433398710302</v>
+        <v>0.6562425823571639</v>
       </c>
       <c r="M42" t="n">
-        <v>1.27892386891223</v>
+        <v>0.6295815386493364</v>
       </c>
       <c r="N42" t="n">
-        <v>1.387282902149952</v>
+        <v>1.001669080520108</v>
       </c>
       <c r="O42" t="n">
-        <v>1.198423224991986</v>
+        <v>0.6160397952256603</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7280932650186616</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.086295673457438</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.443111746775309</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.004388525841433</v>
+        <v>1.118576650465418</v>
       </c>
     </row>
     <row r="43">
@@ -3288,60 +2828,49 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F43" t="n">
-        <v>168</v>
-      </c>
-      <c r="G43" t="n">
         <v>72</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>240</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.5884647961154281</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5903684599123047</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6664246821961455</v>
+        <v>0.6089551380490331</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3297580090092208</v>
+        <v>0.6587314326672055</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3524476968183627</v>
+        <v>0.596685003079286</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4847559675703557</v>
+        <v>0.5933840402601094</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4549239926641107</v>
+        <v>0.6137550201715222</v>
       </c>
       <c r="O43" t="n">
-        <v>1.03851978083861</v>
+        <v>0.5655902761029253</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8737590667249503</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.362793014722867</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.2925125608325226</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.3755100391326068</v>
+        <v>1.01909919963205</v>
       </c>
     </row>
     <row r="44">
@@ -3355,60 +2884,49 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F44" t="n">
-        <v>168</v>
-      </c>
-      <c r="G44" t="n">
         <v>72</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>240</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.049461237004927</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9901099440676129</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3858191327177952</v>
+        <v>1.209399542922162</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2568895040879683</v>
+        <v>1.493442579021837</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3833505069905443</v>
+        <v>0.9051032111085264</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3662776493906693</v>
+        <v>0.9608383146919848</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3597439654745423</v>
+        <v>1.091654911272474</v>
       </c>
       <c r="O44" t="n">
-        <v>1.017744264884385</v>
+        <v>1.171019869039374</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3269638987970288</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.3025367120093331</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.8194113622419485</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.627966520632945</v>
+        <v>1.265051911668731</v>
       </c>
     </row>
     <row r="45">
@@ -3422,60 +2940,49 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F45" t="n">
-        <v>168</v>
-      </c>
-      <c r="G45" t="n">
         <v>72</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H45" t="n">
-        <v>240</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.7133345945573446</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6868028004673132</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.292689374236372</v>
+        <v>0.7439470213133393</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3386905337811645</v>
+        <v>0.5723179699453637</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5880359812570075</v>
+        <v>0.8035396197694529</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3158847554900199</v>
+        <v>0.7594217566895554</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3422708966807335</v>
+        <v>1.024340965660475</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9687712654878675</v>
+        <v>0.6346270708822905</v>
       </c>
       <c r="P45" t="n">
-        <v>0.3027040070004922</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.3843168404359535</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.8119322160473614</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.5920939416229216</v>
+        <v>0.9924493291257942</v>
       </c>
     </row>
     <row r="46">
@@ -3489,60 +2996,49 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F46" t="n">
-        <v>168</v>
-      </c>
-      <c r="G46" t="n">
         <v>72</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>240</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.8350037613631125</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5769919979911349</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.002988752785264</v>
+        <v>0.8678743089663629</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7366724445114843</v>
+        <v>1.275526587807122</v>
       </c>
       <c r="L46" t="n">
-        <v>1.079503368152152</v>
+        <v>0.7654000223742742</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5421047404975406</v>
+        <v>0.7926163431976831</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6147553397134914</v>
+        <v>1.252484050659243</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9227759296622409</v>
+        <v>0.6147318105171892</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8296962044367664</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.7443594445883092</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.137263584056079</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.8809682962449403</v>
+        <v>1.185031312565669</v>
       </c>
     </row>
     <row r="47">
@@ -3556,60 +3052,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F47" t="n">
-        <v>168</v>
-      </c>
-      <c r="G47" t="n">
         <v>72</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>240</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.7191663804932377</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6148926298405414</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.8398162252324364</v>
+        <v>0.5824707002499389</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6284588964362143</v>
+        <v>1.028930905072367</v>
       </c>
       <c r="L47" t="n">
-        <v>0.6411803672505195</v>
+        <v>0.6493881369111374</v>
       </c>
       <c r="M47" t="n">
-        <v>0.486660088398999</v>
+        <v>0.6594242482499969</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4877705267013337</v>
+        <v>0.7548577261143224</v>
       </c>
       <c r="O47" t="n">
-        <v>0.9296140387781553</v>
+        <v>0.5951405645221889</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8391289677206434</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.6404488957318412</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.6860957112277861</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.4639523350234035</v>
+        <v>1.108622995335535</v>
       </c>
     </row>
     <row r="48">
@@ -3623,60 +3108,49 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F48" t="n">
-        <v>168</v>
-      </c>
-      <c r="G48" t="n">
         <v>72</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>240</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6872649831913384</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.074736177825128</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.7716289298554645</v>
+        <v>0.5710158629550887</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5871976086354076</v>
+        <v>0.9048565096291243</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3738974757758705</v>
+        <v>0.5950060611116871</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4934488473084597</v>
+        <v>1.191489095504354</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3059730049419228</v>
+        <v>0.9862236890361334</v>
       </c>
       <c r="O48" t="n">
-        <v>0.9304226764173427</v>
+        <v>0.568363871741408</v>
       </c>
       <c r="P48" t="n">
-        <v>0.3519927210178744</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.6015178249187977</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.2721896082057405</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.4166888198623175</v>
+        <v>1.079491568279938</v>
       </c>
     </row>
     <row r="49">
@@ -3690,60 +3164,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>168</v>
-      </c>
-      <c r="G49" t="n">
         <v>72</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>240</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.59059446959314</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6689966996359997</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.7999944429631918</v>
+        <v>0.6434635128353754</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6072313972442873</v>
+        <v>0.6051863305886676</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2189045473604365</v>
+        <v>0.6283501067457539</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4751484870863717</v>
+        <v>0.5826636480860156</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2911125509867655</v>
+        <v>0.5752946194833011</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9249515864879636</v>
+        <v>0.5619713946886729</v>
       </c>
       <c r="P49" t="n">
-        <v>0.5027373065681345</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.6175053803641687</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.2216125662995732</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.3464285598768133</v>
+        <v>1.003593764564396</v>
       </c>
     </row>
     <row r="50">
@@ -3757,60 +3220,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F50" t="n">
-        <v>168</v>
-      </c>
-      <c r="G50" t="n">
         <v>72</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>240</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.8606462876256438</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9046681512432031</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.7207002053208057</v>
+        <v>1.131192095431428</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5547841831486278</v>
+        <v>0.6235379260360765</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3407561850901615</v>
+        <v>1.010471927041453</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4531343805563371</v>
+        <v>0.7950168668750249</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2465192769996908</v>
+        <v>0.778021335324739</v>
       </c>
       <c r="O50" t="n">
-        <v>0.9260861438943768</v>
+        <v>0.5537870669992008</v>
       </c>
       <c r="P50" t="n">
-        <v>0.3419622523074746</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.5736546789148461</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.2962363001899151</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.354453679019703</v>
+        <v>0.9897830639585937</v>
       </c>
     </row>
     <row r="51">
@@ -3824,60 +3276,49 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F51" t="n">
-        <v>168</v>
-      </c>
-      <c r="G51" t="n">
         <v>72</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H51" t="n">
-        <v>240</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.6095513911975489</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5812066117674741</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.3313386134916126</v>
+        <v>0.621982279461619</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3595479560220138</v>
+        <v>0.6066185809537328</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3245611241044422</v>
+        <v>0.6541821009036651</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3217698739602417</v>
+        <v>0.6442748818326518</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2316166330665167</v>
+        <v>0.593179168043533</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9497600080664104</v>
+        <v>0.776191421161836</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2926516422240705</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.3978519605904139</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.1675119755248968</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.2784388463296891</v>
+        <v>1.000327966882806</v>
       </c>
     </row>
     <row r="52">
@@ -3891,60 +3332,49 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F52" t="n">
-        <v>168</v>
-      </c>
-      <c r="G52" t="n">
         <v>72</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H52" t="n">
-        <v>240</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.8092162161210483</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.209339063381327</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.128437192963623</v>
+        <v>0.9472627301632258</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2918094632279252</v>
+        <v>1.159832020189457</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2427784591076331</v>
+        <v>0.7082889434309257</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3091188808693276</v>
+        <v>1.158952559220286</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2546088424979602</v>
+        <v>2.175288959271718</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9615706039935219</v>
+        <v>0.7149550405847429</v>
       </c>
       <c r="P52" t="n">
-        <v>0.292634687408355</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.3346003952037832</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.2442898345502968</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.2702190240755605</v>
+        <v>1.156436299287959</v>
       </c>
     </row>
     <row r="53">
@@ -3960,58 +3390,49 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F53" t="n">
-        <v>168</v>
-      </c>
-      <c r="G53" t="n">
         <v>72</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>240</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0.7389025271107693</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7572211335710137</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7792375967920147</v>
+      </c>
       <c r="K53" t="n">
-        <v>0.6454785972947309</v>
+        <v>0.895987113592307</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7413092549813557</v>
+        <v>0.7126627915543352</v>
       </c>
       <c r="M53" t="n">
-        <v>0.5879468396319326</v>
+        <v>0.779594493885941</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5368769077886405</v>
+        <v>0.9564110237273346</v>
       </c>
       <c r="O53" t="n">
-        <v>0.9921820556062987</v>
+        <v>0.6622513707496956</v>
       </c>
       <c r="P53" t="n">
-        <v>0.6224735641197088</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.6553715167746222</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.6961493438686596</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.7445378709717235</v>
+        <v>1.080799829483612</v>
       </c>
     </row>
   </sheetData>
